--- a/SQL table designs.xlsx
+++ b/SQL table designs.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo\PycharmProjects\BonkieBot V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProjects\BonkieBotV4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="22905" windowHeight="10185"/>
+    <workbookView xWindow="4170" yWindow="0" windowWidth="22905" windowHeight="10185" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="olde design" sheetId="1" r:id="rId1"/>
+    <sheet name="new design" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>row_id</t>
   </si>
@@ -174,6 +175,48 @@
   </si>
   <si>
     <t>TABLE errors</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>workouts</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>exercises</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>errors</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -213,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -264,11 +307,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -279,6 +351,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -623,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="B16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,4 +1060,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>